--- a/data/income_statement/2digits/total/87_IS_TOTAL.xlsx
+++ b/data/income_statement/2digits/total/87_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>87-Residential care activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>87-Residential care activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>84013.03454000001</v>
@@ -962,31 +868,36 @@
         <v>200372.46576</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>259333.94866</v>
+        <v>260319.70608</v>
       </c>
       <c r="H5" s="47" t="n">
         <v>273857.59617</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>316364.9448699999</v>
+        <v>318656.31246</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>386323.76482</v>
+        <v>386323.7648199999</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>508031.93695</v>
+        <v>508031.9369500001</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>614244.0477500001</v>
+        <v>615457.7797000001</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>806559.9850300001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>827929.35225</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>1027247.859</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>80038.30487000001</v>
@@ -1001,13 +912,13 @@
         <v>191529.57414</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>249451.94212</v>
+        <v>250437.69954</v>
       </c>
       <c r="H6" s="48" t="n">
         <v>263949.28475</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>306111.06659</v>
+        <v>308333.09869</v>
       </c>
       <c r="J6" s="48" t="n">
         <v>370495.86501</v>
@@ -1016,16 +927,21 @@
         <v>472688.8457800001</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>570011.12519</v>
+        <v>571198.1551800001</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>741416.32364</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>760382.2480599999</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>949550.186</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>975.95176</v>
@@ -1060,11 +976,16 @@
       <c r="M7" s="48" t="n">
         <v>5.294</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7" s="48" t="n">
+        <v>26.691</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>2998.77791</v>
@@ -1079,31 +1000,36 @@
         <v>6077.42944</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>7866.273359999999</v>
+        <v>7866.27336</v>
       </c>
       <c r="H8" s="48" t="n">
         <v>6611.82374</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>9558.69881</v>
+        <v>9628.034300000001</v>
       </c>
       <c r="J8" s="48" t="n">
         <v>15559.45783</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>33805.63966</v>
+        <v>33805.63965999999</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>44139.09686</v>
+        <v>44165.79882</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>65138.36738999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>67541.81019</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>77670.982</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>112.68562</v>
@@ -1112,7 +1038,7 @@
         <v>25.90025</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>52.71422999999999</v>
+        <v>52.71423</v>
       </c>
       <c r="F9" s="47" t="n">
         <v>147.85262</v>
@@ -1127,7 +1053,7 @@
         <v>70.25434999999999</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>91.68579999999999</v>
+        <v>91.6858</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>149.00386</v>
@@ -1138,11 +1064,16 @@
       <c r="M9" s="47" t="n">
         <v>194.97294</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9" s="47" t="n">
+        <v>262.072</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>110.71587</v>
@@ -1177,11 +1108,16 @@
       <c r="M10" s="48" t="n">
         <v>116.65202</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10" s="48" t="n">
+        <v>233.952</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>1.64263</v>
@@ -1216,11 +1152,16 @@
       <c r="M11" s="48" t="n">
         <v>30.44432</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>0.32712</v>
@@ -1255,11 +1196,16 @@
       <c r="M12" s="48" t="n">
         <v>47.8766</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>28.12</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>83900.34892</v>
@@ -1274,31 +1220,36 @@
         <v>200224.61314</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>259123.4432</v>
+        <v>260109.20062</v>
       </c>
       <c r="H13" s="47" t="n">
         <v>273726.9875</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>316294.69052</v>
+        <v>318586.05811</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>386232.0790200001</v>
+        <v>386232.07902</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>507882.9330899999</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>614118.3969700001</v>
+        <v>615332.1289199999</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>806365.0120900001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>827734.3793100001</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>1026985.787</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>56783.91905</v>
@@ -1313,13 +1264,13 @@
         <v>140864.70292</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>187602.21096</v>
+        <v>188624.2994</v>
       </c>
       <c r="H14" s="47" t="n">
         <v>200139.73261</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>236678.86214</v>
+        <v>238111.45169</v>
       </c>
       <c r="J14" s="47" t="n">
         <v>295366.12962</v>
@@ -1328,16 +1279,21 @@
         <v>387605.34697</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>463394.00889</v>
+        <v>465196.3501299999</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>611732.2706899999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>624831.30658</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>753274.296</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>77.00753</v>
@@ -1364,7 +1320,7 @@
         <v>789.8303000000001</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>760.29314</v>
+        <v>760.2931400000001</v>
       </c>
       <c r="L15" s="48" t="n">
         <v>643.23749</v>
@@ -1372,11 +1328,16 @@
       <c r="M15" s="48" t="n">
         <v>8256.63904</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15" s="48" t="n">
+        <v>6186.409</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>3290.74488</v>
@@ -1388,7 +1349,7 @@
         <v>5238.85601</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>7040.989049999999</v>
+        <v>7040.98905</v>
       </c>
       <c r="G16" s="48" t="n">
         <v>5321.90858</v>
@@ -1397,7 +1358,7 @@
         <v>6162.419</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>4277.80148</v>
+        <v>4277.801479999999</v>
       </c>
       <c r="J16" s="48" t="n">
         <v>12294.70999</v>
@@ -1409,13 +1370,18 @@
         <v>3854.33664</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>12400.64918</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>12497.46205</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>16880.333</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>53354.2227</v>
@@ -1430,13 +1396,13 @@
         <v>133568.88309</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>182177.79918</v>
+        <v>183199.88762</v>
       </c>
       <c r="H17" s="48" t="n">
         <v>193641.0748</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>230456.1911699999</v>
+        <v>231881.79712</v>
       </c>
       <c r="J17" s="48" t="n">
         <v>281853.45339</v>
@@ -1445,16 +1411,21 @@
         <v>376808.1171</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>457664.2539</v>
+        <v>459466.59514</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>590899.6370099999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>603901.86003</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>728085.929</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>61.94394</v>
@@ -1475,10 +1446,10 @@
         <v>295.44274</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>540.76687</v>
+        <v>547.75047</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>428.1359399999999</v>
+        <v>428.13594</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>219.59951</v>
@@ -1489,11 +1460,16 @@
       <c r="M18" s="48" t="n">
         <v>175.34546</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>2121.625</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>27116.42987</v>
@@ -1502,19 +1478,19 @@
         <v>37637.40234</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>50720.99527</v>
+        <v>50720.99527000001</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>59359.91021999999</v>
+        <v>59359.91022</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>71521.23224</v>
+        <v>71484.90122</v>
       </c>
       <c r="H19" s="47" t="n">
         <v>73587.25489</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>79615.82838000001</v>
+        <v>80474.60642</v>
       </c>
       <c r="J19" s="47" t="n">
         <v>90865.9494</v>
@@ -1523,16 +1499,21 @@
         <v>120277.58612</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>150724.38808</v>
+        <v>150135.77879</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>194632.7414</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>202903.07273</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>273711.491</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>22574.94163</v>
@@ -1547,31 +1528,36 @@
         <v>48387.29350000001</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>56840.65169</v>
+        <v>56857.55248</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>60711.05452999999</v>
+        <v>60714.8264</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>67454.87856</v>
+        <v>68709.63786</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>78598.25870000001</v>
+        <v>78602.83870000001</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>93062.1945</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>119290.17931</v>
+        <v>119943.18367</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>153421.33247</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>162263.57219</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>210246.198</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>0</v>
@@ -1606,11 +1592,16 @@
       <c r="M21" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>2.401</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>1718.6631</v>
@@ -1625,13 +1616,13 @@
         <v>5413.21774</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>4668.938090000001</v>
+        <v>4668.93809</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>4256.05656</v>
+        <v>4256.056560000001</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>5420.95235</v>
+        <v>5441.54567</v>
       </c>
       <c r="J22" s="48" t="n">
         <v>8590.95644</v>
@@ -1643,19 +1634,24 @@
         <v>11149.27745</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>13290.96786</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>13621.26017</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>19767.394</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>20856.27853</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>30403.76994</v>
+        <v>30403.76994000001</v>
       </c>
       <c r="E23" s="48" t="n">
         <v>37242.98889</v>
@@ -1664,37 +1660,42 @@
         <v>42964.07576</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>52171.7136</v>
+        <v>52188.61439</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>56433.41616</v>
+        <v>56437.18803</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>62033.92621000001</v>
+        <v>63268.09219</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>69939.41927000001</v>
+        <v>69943.99927</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>84940.40607999999</v>
+        <v>84940.40608000002</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>108139.42973</v>
+        <v>108792.43409</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>140130.36461</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>148642.31202</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>190476.403</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>4541.488240000001</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>5832.69456</v>
+        <v>5832.694560000001</v>
       </c>
       <c r="E24" s="47" t="n">
         <v>10108.02403</v>
@@ -1703,31 +1704,36 @@
         <v>10972.61672</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>14680.58055</v>
+        <v>14627.34874</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>12876.20036</v>
+        <v>12872.42849</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>12160.94982</v>
+        <v>11764.96856</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>12267.6907</v>
+        <v>12263.1107</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>27215.39162</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>31434.20877</v>
+        <v>30192.59512</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>41211.40893</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>40639.50054</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>63465.293</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>1220.08686</v>
@@ -1742,13 +1748,13 @@
         <v>1789.13661</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>925.1447900000001</v>
+        <v>925.2117400000001</v>
       </c>
       <c r="H25" s="47" t="n">
         <v>1206.8423</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>2319.1199</v>
+        <v>2331.60915</v>
       </c>
       <c r="J25" s="47" t="n">
         <v>2766.052</v>
@@ -1757,16 +1763,21 @@
         <v>6727.490090000001</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>6030.899689999998</v>
+        <v>6082.674859999999</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>7066.116059999998</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>7071.06822</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>9245.126</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>0</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1840,14 +1856,19 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>32.935</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>686.74753</v>
+        <v>686.7475299999999</v>
       </c>
       <c r="D28" s="48" t="n">
         <v>223.70803</v>
@@ -1865,7 +1886,7 @@
         <v>353.27701</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>755.8960900000001</v>
+        <v>755.8960899999998</v>
       </c>
       <c r="J28" s="48" t="n">
         <v>685.0474399999999</v>
@@ -1874,16 +1895,21 @@
         <v>1191.40145</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>2480.21375</v>
+        <v>2481.22649</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>1751.54725</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>1752.47767</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>2469.846</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>177.18004</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>1.2425</v>
@@ -1957,17 +1988,22 @@
       <c r="M30" s="48" t="n">
         <v>5e-05</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>59.16</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>10.03336</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>6.27547</v>
+        <v>6.275469999999999</v>
       </c>
       <c r="E31" s="48" t="n">
         <v>4.871180000000001</v>
@@ -1976,7 +2012,7 @@
         <v>17.53303</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>24.80963</v>
+        <v>24.87657999999999</v>
       </c>
       <c r="H31" s="48" t="n">
         <v>25.09354</v>
@@ -1996,14 +2032,19 @@
       <c r="M31" s="48" t="n">
         <v>243.37226</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>212.527</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>94.90326999999999</v>
+        <v>94.90327000000001</v>
       </c>
       <c r="D32" s="48" t="n">
         <v>354.45285</v>
@@ -2030,16 +2071,21 @@
         <v>547.5920600000001</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>1139.5026</v>
+        <v>1190.25356</v>
       </c>
       <c r="M32" s="48" t="n">
         <v>380.53344</v>
       </c>
-    </row>
-    <row r="33" spans="1:13">
+      <c r="N32" s="48" t="n">
+        <v>1374.213</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>3.66268</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>16.005</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>249.98016</v>
@@ -2135,28 +2191,33 @@
         <v>375.49711</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>503.9981299999999</v>
+        <v>503.9981300000001</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>815.77094</v>
+        <v>828.26019</v>
       </c>
       <c r="J35" s="48" t="n">
         <v>1498.11843</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>4735.516400000001</v>
+        <v>4735.5164</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>2066.15495</v>
+        <v>2066.16642</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>4677.000379999999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>4681.02212</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>5080.44</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>362.19911</v>
@@ -2171,7 +2232,7 @@
         <v>984.5977899999999</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>350.60396</v>
+        <v>350.6282400000001</v>
       </c>
       <c r="H36" s="47" t="n">
         <v>395.06226</v>
@@ -2189,13 +2250,18 @@
         <v>2914.96909</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>1418.25297</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>1422.17297</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>2265.319</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>5.912809999999999</v>
@@ -2230,11 +2296,16 @@
       <c r="M37" s="48" t="n">
         <v>33.65854</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>24.942</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>24.98916</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>493.97607</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>179.063</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0.1639</v>
@@ -2288,7 +2364,7 @@
         <v>8.399520000000001</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>6.02326</v>
+        <v>6.023260000000001</v>
       </c>
       <c r="H39" s="48" t="n">
         <v>1.06271</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>0.22681</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>232.07007</v>
@@ -2321,7 +2402,7 @@
         <v>202.68247</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>381.5113899999999</v>
+        <v>381.51139</v>
       </c>
       <c r="F40" s="48" t="n">
         <v>146.18487</v>
@@ -2345,13 +2426,18 @@
         <v>1830.81492</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>706.0126300000002</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>709.93263</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>2043.725</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0.16167</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>98.9015</v>
@@ -2444,7 +2540,7 @@
         <v>806.23207</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>110.72842</v>
+        <v>110.7527</v>
       </c>
       <c r="H43" s="48" t="n">
         <v>15.22998</v>
@@ -2453,10 +2549,10 @@
         <v>31.68059</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>337.28859</v>
+        <v>337.2885899999999</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>72.15034999999999</v>
+        <v>72.15035</v>
       </c>
       <c r="L43" s="48" t="n">
         <v>787.1578000000001</v>
@@ -2464,17 +2560,22 @@
       <c r="M43" s="48" t="n">
         <v>184.37892</v>
       </c>
-    </row>
-    <row r="44" spans="1:13">
+      <c r="N43" s="48" t="n">
+        <v>17.589</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>755.18797</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>729.1253</v>
+        <v>729.1252999999999</v>
       </c>
       <c r="E44" s="47" t="n">
         <v>1127.03324</v>
@@ -2486,49 +2587,54 @@
         <v>2367.38493</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>2931.40186</v>
+        <v>2931.401859999999</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>4399.50673</v>
+        <v>4403.11468</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>5497.73697</v>
+        <v>5497.736970000001</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>7189.544829999999</v>
+        <v>7189.54483</v>
       </c>
       <c r="L44" s="47" t="n">
         <v>11099.57194</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>19497.08794</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>19627.10935</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>25437.28</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>755.0521600000001</v>
+        <v>755.05216</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>701.7573900000001</v>
+        <v>701.75739</v>
       </c>
       <c r="E45" s="48" t="n">
         <v>1093.91128</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>2542.125149999999</v>
+        <v>2542.12515</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>2214.447079999999</v>
+        <v>2214.44708</v>
       </c>
       <c r="H45" s="48" t="n">
         <v>2825.78726</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>4178.42781</v>
+        <v>4182.035760000001</v>
       </c>
       <c r="J45" s="48" t="n">
         <v>5352.30313</v>
@@ -2540,13 +2646,18 @@
         <v>10296.88023</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>17739.56858</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>17869.58999</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>24394.62</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>0.13581</v>
@@ -2573,7 +2684,7 @@
         <v>145.43384</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>366.4331900000001</v>
+        <v>366.43319</v>
       </c>
       <c r="L46" s="48" t="n">
         <v>802.6917099999999</v>
@@ -2581,14 +2692,19 @@
       <c r="M46" s="48" t="n">
         <v>1757.51936</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>1042.66</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>4644.188020000001</v>
+        <v>4644.18802</v>
       </c>
       <c r="D47" s="47" t="n">
         <v>5618.674109999999</v>
@@ -2600,31 +2716,36 @@
         <v>9105.63746</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>12887.73645</v>
+        <v>12834.54731</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>10756.57854</v>
+        <v>10752.80667</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>9572.855240000001</v>
+        <v>9185.755279999999</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>8574.895619999999</v>
+        <v>8570.315619999999</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>25396.19662</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>23450.56743</v>
+        <v>22260.72895</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>27362.18408</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>26661.28644</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>45007.82</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>1049.9919</v>
@@ -2639,31 +2760,36 @@
         <v>1022.18895</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>1408.02162</v>
+        <v>1408.02163</v>
       </c>
       <c r="H48" s="47" t="n">
         <v>1371.21435</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>1310.59189</v>
+        <v>1336.59189</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>2998.98538</v>
+        <v>2998.985380000001</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>7226.95204</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>8620.68959</v>
+        <v>8629.96364</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>10716.7336</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>11000.88324</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>13647.119</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>15.39031</v>
@@ -2678,7 +2804,7 @@
         <v>33.08208999999999</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>28.24068</v>
+        <v>28.24069</v>
       </c>
       <c r="H49" s="48" t="n">
         <v>119.76635</v>
@@ -2698,11 +2824,16 @@
       <c r="M49" s="48" t="n">
         <v>100.31797</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>0.483</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>1034.60159</v>
@@ -2714,7 +2845,7 @@
         <v>1042.12572</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>989.10686</v>
+        <v>989.1068600000001</v>
       </c>
       <c r="G50" s="48" t="n">
         <v>1379.78094</v>
@@ -2723,7 +2854,7 @@
         <v>1251.448</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>1294.96</v>
+        <v>1320.96</v>
       </c>
       <c r="J50" s="48" t="n">
         <v>2995.33126</v>
@@ -2732,25 +2863,30 @@
         <v>7224.060699999999</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>8551.613090000001</v>
+        <v>8560.887140000001</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>10616.41563</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>10900.56527</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>13646.636</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>509.35255</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>557.8832500000001</v>
+        <v>557.88325</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>8928.947450000001</v>
+        <v>8928.94745</v>
       </c>
       <c r="F51" s="47" t="n">
         <v>1409.35561</v>
@@ -2759,28 +2895,33 @@
         <v>1788.58793</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>7368.020789999999</v>
+        <v>7368.02079</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>1562.36814</v>
+        <v>1659.41914</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>10419.21576</v>
+        <v>10482.85056</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>3496.64008</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>9989.481940000001</v>
+        <v>10667.91419</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>2818.47848</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>2895.55755</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>6255.299</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>0</v>
@@ -2815,14 +2956,19 @@
       <c r="M52" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>57.915</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>87.16105</v>
+        <v>87.16104999999999</v>
       </c>
       <c r="D53" s="48" t="n">
         <v>156.38107</v>
@@ -2831,7 +2977,7 @@
         <v>246.59235</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>597.09866</v>
+        <v>597.0986599999999</v>
       </c>
       <c r="G53" s="48" t="n">
         <v>758.2873499999999</v>
@@ -2854,11 +3000,16 @@
       <c r="M53" s="48" t="n">
         <v>372.7829</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="48" t="n">
+        <v>877.155</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>422.1915</v>
@@ -2870,7 +3021,7 @@
         <v>8682.355099999999</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>812.2569500000001</v>
+        <v>812.25695</v>
       </c>
       <c r="G54" s="48" t="n">
         <v>1030.30058</v>
@@ -2879,25 +3030,30 @@
         <v>7129.12066</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>1374.59954</v>
+        <v>1471.65054</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>10192.73391</v>
+        <v>10256.36871</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>3316.032889999999</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>8268.19138</v>
+        <v>8946.623629999998</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>2445.69558</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>2522.77465</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>5320.229</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>5184.82737</v>
@@ -2912,31 +3068,36 @@
         <v>8718.470799999999</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>12507.17014</v>
+        <v>12453.98101</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>4759.772099999999</v>
+        <v>4756.000230000001</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>9321.07899</v>
+        <v>8862.928030000001</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>1154.66524</v>
+        <v>1086.45044</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>29126.50858</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>22081.77508</v>
+        <v>20222.7784</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>35260.4392</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>34766.61212999999</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>52399.64</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>1280.49862</v>
@@ -2951,16 +3112,16 @@
         <v>2411.01593</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>2768.525120000001</v>
+        <v>2790.73053</v>
       </c>
       <c r="H56" s="47" t="n">
         <v>2935.00764</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>3525.95485</v>
+        <v>3543.95591</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>3497.91987</v>
+        <v>3497.919869999999</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>6555.597210000001</v>
@@ -2969,13 +3130,18 @@
         <v>7794.728059999999</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>9425.363479999998</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>9720.342789999999</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>12372.274</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>3904.32875</v>
@@ -2984,34 +3150,37 @@
         <v>4226.48334</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-459.7708999999996</v>
+        <v>-459.7709000000002</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>6307.45487</v>
+        <v>6307.454870000001</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>9738.645020000002</v>
+        <v>9663.250480000001</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>1824.76446</v>
+        <v>1820.992590000001</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>5795.124140000001</v>
+        <v>5318.972119999999</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-2343.254629999999</v>
+        <v>-2411.46943</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>22570.91137</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>14287.04702</v>
+        <v>12428.05034</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>25835.07572</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>25046.26934</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>40027.366</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>224</v>
@@ -3044,28 +3216,31 @@
         <v>271</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>363</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>382</v>
+        <v>402</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>446</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>